--- a/data/trans_bre/P45C_R1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R1-Edad-trans_bre.xlsx
@@ -660,27 +660,29 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.369679657332357</v>
+        <v>-3.060911027372501</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.992463728778307</v>
+        <v>-1.095930351240207</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.5669003039833371</v>
+        <v>-0.6013768225165577</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.11489571746324</v>
+        <v>-1.834152181373294</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.7860845479077611</v>
+        <v>-0.7591413160447158</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5829237282625443</v>
+        <v>-0.6450737346841066</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3575984312788247</v>
-      </c>
-      <c r="J5" s="6" t="inlineStr"/>
+        <v>-0.4093684708419403</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.8487671980015304</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -690,25 +692,25 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.761517958893741</v>
+        <v>0.8910735430113453</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.425705388288984</v>
+        <v>2.441424130942578</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.872698821913489</v>
+        <v>4.095431731253703</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.390363126648473</v>
+        <v>3.528996082364276</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6454415017230613</v>
+        <v>0.7194576258539239</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4.127328366148159</v>
+        <v>4.12909640125342</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5.973448159654789</v>
+        <v>5.91237001287722</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -733,7 +735,7 @@
         <v>-0.0474169492857536</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3481214082932869</v>
+        <v>0.3481214082932862</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.05458230031061224</v>
@@ -745,7 +747,7 @@
         <v>-0.03932674273335248</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1734915045892086</v>
+        <v>0.1734915045892083</v>
       </c>
     </row>
     <row r="8">
@@ -756,28 +758,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.649715986771197</v>
+        <v>-1.643024306531518</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.006289744878659</v>
+        <v>-2.776174733959428</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.360812200031041</v>
+        <v>-1.416254553815067</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.243124304915472</v>
+        <v>-2.213979004244653</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6351589360392771</v>
+        <v>-0.6450368291094194</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7765383851826033</v>
+        <v>-0.7634063629327792</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7455704311407204</v>
+        <v>-0.7353120366854601</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6968339117003732</v>
+        <v>-0.6475642297777795</v>
       </c>
     </row>
     <row r="9">
@@ -788,28 +790,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.32956357698927</v>
+        <v>1.409989510006339</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3295632771024124</v>
+        <v>0.3225612692364446</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.155431609407645</v>
+        <v>1.163807632331425</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.586534954256246</v>
+        <v>2.476266302962322</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.173875439544066</v>
+        <v>1.106924890682661</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2492898059059169</v>
+        <v>0.2599087153796832</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.048919854119752</v>
+        <v>2.133435022054173</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.514445340707946</v>
+        <v>3.323399227626836</v>
       </c>
     </row>
     <row r="10">
@@ -833,7 +835,7 @@
         <v>-0.5521392231581598</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.1546609220720703</v>
+        <v>-0.1546609220720707</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.838859332714833</v>
@@ -845,7 +847,7 @@
         <v>-0.5573991518035784</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.07905723486968207</v>
+        <v>-0.07905723486968223</v>
       </c>
     </row>
     <row r="11">
@@ -856,28 +858,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4184993614044423</v>
+        <v>0.3260959799941401</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.405355107163317</v>
+        <v>0.468931990269463</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.400044868552838</v>
+        <v>-1.531315126592736</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.674081477894156</v>
+        <v>-1.681019221159374</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1316142787795536</v>
+        <v>0.1087885814385827</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1593023684849413</v>
+        <v>0.2248561481344039</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.9085692079211105</v>
+        <v>-0.9038540132668229</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.6167997363548995</v>
+        <v>-0.6042408608569456</v>
       </c>
     </row>
     <row r="12">
@@ -888,28 +890,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.429870980192112</v>
+        <v>3.379880576495436</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.948644198894126</v>
+        <v>3.072344626471324</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3096637028708318</v>
+        <v>0.33081424928563</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.222026189201355</v>
+        <v>1.312322368362913</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>7.521864806649523</v>
+        <v>7.99915934500625</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>14.20361078767086</v>
+        <v>14.12097487097284</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.209045418931298</v>
+        <v>1.368060337367894</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.13410448414491</v>
+        <v>1.262230086353913</v>
       </c>
     </row>
     <row r="13">
@@ -933,7 +935,7 @@
         <v>1.225962232011501</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.2856390126541167</v>
+        <v>-0.285639012654117</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2630010875308713</v>
@@ -945,7 +947,7 @@
         <v>3.774562341994605</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1314301941020342</v>
+        <v>-0.1314301941020343</v>
       </c>
     </row>
     <row r="14">
@@ -956,28 +958,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.561566749700399</v>
+        <v>-2.60484870597753</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.8833335889771335</v>
+        <v>-0.9571981998157791</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2868890351807926</v>
+        <v>0.2544036856935892</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.902203924554036</v>
+        <v>-1.863248388482801</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7435541668982877</v>
+        <v>-0.7756801757520592</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4188497056373316</v>
+        <v>-0.4474118597233949</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.271153634432989</v>
+        <v>-0.2981261602875425</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5703482298474336</v>
+        <v>-0.5768505283680025</v>
       </c>
     </row>
     <row r="15">
@@ -988,26 +990,26 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.050526829164858</v>
+        <v>1.112920236905403</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.216102573342508</v>
+        <v>2.187492832839023</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.477180303361123</v>
+        <v>2.56213969015062</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.139561366083487</v>
+        <v>1.054765544528602</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9820110621231857</v>
+        <v>0.9114048387997987</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.809456592672796</v>
+        <v>2.361226075763445</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>1.025265788086452</v>
+        <v>0.8380279334963043</v>
       </c>
     </row>
     <row r="16">
@@ -1054,26 +1056,26 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.293070154037925</v>
+        <v>-1.111456747273961</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.034016180517037</v>
+        <v>-0.990613410964757</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.54008141203778</v>
+        <v>-1.421650654249059</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.312952222575171</v>
+        <v>-2.224149989765258</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6258485402011742</v>
-      </c>
-      <c r="H17" s="6" t="n">
+        <v>-0.6137320617880272</v>
+      </c>
+      <c r="H17" s="6" t="inlineStr"/>
+      <c r="I17" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="I17" s="6" t="inlineStr"/>
       <c r="J17" s="6" t="n">
-        <v>-0.7089725580402884</v>
+        <v>-0.6866638267873559</v>
       </c>
     </row>
     <row r="18">
@@ -1084,24 +1086,26 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.119499988648613</v>
+        <v>2.09674363262689</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.522383080045221</v>
+        <v>1.511519265720676</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.233929991966124</v>
+        <v>1.228374749306346</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.607215015821987</v>
+        <v>0.6074559755915695</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4.530227730253426</v>
+        <v>5.001566907085496</v>
       </c>
       <c r="H18" s="6" t="inlineStr"/>
-      <c r="I18" s="6" t="inlineStr"/>
+      <c r="I18" s="6" t="n">
+        <v>5.691657444636799</v>
+      </c>
       <c r="J18" s="6" t="n">
-        <v>0.5243395016689847</v>
+        <v>0.5105916563207741</v>
       </c>
     </row>
     <row r="19">
@@ -1125,7 +1129,7 @@
         <v>-0.2970837808717332</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.03558572141950161</v>
+        <v>0.0355857214195017</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.007183233397201937</v>
@@ -1137,7 +1141,7 @@
         <v>-0.3542379015142723</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.04994443274733438</v>
+        <v>0.04994443274733451</v>
       </c>
     </row>
     <row r="20">
@@ -1148,24 +1152,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.004702194886729</v>
+        <v>-1.653783667608226</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.582814273314831</v>
+        <v>-1.3637119973156</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.180019064831319</v>
+        <v>-2.214264553098821</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.9500721394997719</v>
+        <v>-1.054054097854842</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
-      <c r="H20" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>-0.7734810490317199</v>
+        <v>-0.832567290231771</v>
       </c>
     </row>
     <row r="21">
@@ -1176,24 +1178,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.129290350039868</v>
+        <v>1.30724945075495</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.396889830923191</v>
+        <v>1.633369693431793</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7834564948400005</v>
+        <v>0.8081184982491835</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9761718244013635</v>
+        <v>0.8831066416747163</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
-      <c r="H21" s="6" t="n">
-        <v>7.233548697567752</v>
-      </c>
+      <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>5.263316020796982</v>
+        <v>3.978070242522259</v>
       </c>
     </row>
     <row r="22">
@@ -1217,7 +1217,7 @@
         <v>-0.3436439378691731</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.2851612438708767</v>
+        <v>-0.2851612438708768</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.7568469186779876</v>
@@ -1242,16 +1242,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.220706450416464</v>
+        <v>-3.386226722951488</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.667840554700601</v>
+        <v>-1.375958872183811</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.294338510198235</v>
+        <v>-1.429383719480024</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="inlineStr"/>
@@ -1266,16 +1266,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3214825923861874</v>
+        <v>0.1727177955244538</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.768260062650807</v>
+        <v>2.036392769793167</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6354944433439303</v>
+        <v>0.6457757640081621</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1944601755247166</v>
+        <v>0.1853138391338235</v>
       </c>
       <c r="G24" s="6" t="inlineStr"/>
       <c r="H24" s="6" t="inlineStr"/>
@@ -1303,7 +1303,7 @@
         <v>0.2080541832687884</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-0.1685358399750035</v>
+        <v>-0.1685358399750033</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.00901825308722776</v>
@@ -1315,7 +1315,7 @@
         <v>0.2272992119892043</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.09868282463158286</v>
+        <v>-0.09868282463158275</v>
       </c>
     </row>
     <row r="26">
@@ -1326,28 +1326,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.6826584995074122</v>
+        <v>-0.7066749916852187</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.2369556847929029</v>
+        <v>-0.3060540100214432</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.336268897095405</v>
+        <v>-0.2886797288785938</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.8181433437044944</v>
+        <v>-0.7948083627877417</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3497045493939238</v>
+        <v>-0.3519240996802964</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1626905295839863</v>
+        <v>-0.2049709083661409</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3007185887303183</v>
+        <v>-0.2431696349674354</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3820296928569807</v>
+        <v>-0.3737863697975701</v>
       </c>
     </row>
     <row r="27">
@@ -1358,28 +1358,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.6087274035988078</v>
+        <v>0.6281493705378767</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8895536789028997</v>
+        <v>0.8664619066187502</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7108240220820489</v>
+        <v>0.6833476449950163</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.482151612933412</v>
+        <v>0.434273477041955</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4404429741748572</v>
+        <v>0.4623991599672847</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8766544295618316</v>
+        <v>0.8447330305565921</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.052746900322308</v>
+        <v>1.0316881099806</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3545241381707265</v>
+        <v>0.3380410224557027</v>
       </c>
     </row>
     <row r="28">
